--- a/Week1_AudioAssetList.xlsx
+++ b/Week1_AudioAssetList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh8407j\Downloads\Week1_AudioAssetList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh8407j\Downloads\GameAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F560B2-F519-4EA3-B0D8-04A95E8CCF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6768F51F-C5B1-4351-A319-BA766D5EDAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F92DD089-34A6-4D5C-9EF7-AAF5AB465345}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Sound</t>
   </si>
@@ -304,16 +304,28 @@
     <t>https://youtu.be/1pvaw3tqgaw?feature=shared&amp;t=6300</t>
   </si>
   <si>
-    <t>Assault_Rifle_Shot</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
     <t>Stereo</t>
   </si>
   <si>
-    <t>lightBuzzLooped</t>
+    <t>lightBuzzLooped.wav</t>
+  </si>
+  <si>
+    <t>trigger.wav</t>
+  </si>
+  <si>
+    <t>Assault_Rifle_Shot.wav</t>
+  </si>
+  <si>
+    <t>spaceshipAmbienceLooped.wav</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>Health_Pickup_00.wav</t>
+  </si>
+  <si>
+    <t>Ammo_Pickup_00.wav</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -400,7 +412,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +729,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,11 +810,11 @@
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G7" s="1">
         <v>3.7</v>
@@ -823,10 +834,10 @@
         <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1">
         <v>0.14000000000000001</v>
@@ -846,10 +857,10 @@
         <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1">
         <v>21.2</v>
@@ -868,9 +879,15 @@
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -885,9 +902,15 @@
       <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -902,9 +925,15 @@
       <c r="D12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
